--- a/9-project/02. 분석 및 설계/02.01. 요구분석 및 WBS 작성/2. (참고4) WBS 작성 - 강의시간.xlsx
+++ b/9-project/02. 분석 및 설계/02.01. 요구분석 및 WBS 작성/2. (참고4) WBS 작성 - 강의시간.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git2021\9-project\02. 분석 및 설계\02.01. 요구분석 및 WBS 작성\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -86,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마일스톤(Milestone)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +203,10 @@
   </si>
   <si>
     <t>(컴포넌트(기능))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일스톤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,40 +300,40 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,17 +617,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.200000000000003" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="18.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.53515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.84375" customWidth="1"/>
     <col min="3" max="3" width="46.19140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.61328125" bestFit="1" customWidth="1"/>
@@ -637,102 +636,102 @@
     <col min="9" max="9" width="3.3828125" customWidth="1"/>
     <col min="10" max="10" width="8.61328125" customWidth="1"/>
     <col min="11" max="11" width="3.23046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.23046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.23046875" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="3.23046875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.23046875" customWidth="1"/>
-    <col min="17" max="17" width="3.23046875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="3.23046875" style="6" customWidth="1"/>
     <col min="18" max="21" width="2.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.265625" style="6" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="2.265625" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="3.23046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.23046875" style="8" customWidth="1"/>
+    <col min="27" max="27" width="3.23046875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="K1" s="11">
+      <c r="K1" s="12">
         <v>10</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="11">
         <v>11</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="9"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="13"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.8">
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="11">
+        <v>2</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="11">
+        <v>3</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="12">
+        <v>4</v>
+      </c>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.8">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="10">
-        <v>2</v>
-      </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10">
-        <v>3</v>
-      </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="11">
-        <v>4</v>
-      </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="9"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="K3">
         <v>21</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>22</v>
       </c>
       <c r="M3">
@@ -747,77 +746,77 @@
       <c r="P3">
         <v>28</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="6">
         <v>29</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="7">
         <v>1</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="7">
         <v>2</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="7">
         <v>3</v>
       </c>
-      <c r="U3" s="12">
+      <c r="U3" s="7">
         <v>4</v>
       </c>
-      <c r="V3" s="14">
+      <c r="V3" s="9">
         <v>5</v>
       </c>
-      <c r="W3" s="12">
+      <c r="W3" s="7">
         <v>8</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="7">
         <v>9</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="Y3" s="7">
         <v>10</v>
       </c>
-      <c r="Z3" s="12">
+      <c r="Z3" s="7">
         <v>11</v>
       </c>
-      <c r="AA3" s="14">
+      <c r="AA3" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.8">
+      <c r="A5" s="14"/>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A5" s="5"/>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.8">
+      <c r="A7" s="14"/>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A7" s="5"/>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.8">
+      <c r="A8" s="14"/>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A8" s="5"/>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
+      <c r="A9" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -827,26 +826,26 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A10" s="5"/>
+      <c r="A10" s="14"/>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="15"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="10"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A11" s="5"/>
+      <c r="A11" s="14"/>
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -864,9 +863,9 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A12" s="5"/>
+      <c r="A12" s="14"/>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>12</v>
@@ -879,7 +878,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A13" s="5"/>
+      <c r="A13" s="14"/>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
@@ -894,16 +893,16 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A14" s="5"/>
+      <c r="A14" s="14"/>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A15" s="5"/>
+      <c r="A15" s="14"/>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
@@ -912,7 +911,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A16" s="5"/>
+      <c r="A16" s="14"/>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
@@ -921,88 +920,88 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A17" s="5"/>
+      <c r="A17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A18" s="5"/>
+      <c r="A18" s="14"/>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A19" s="5"/>
+      <c r="A19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A20" s="5"/>
+      <c r="A20" s="14"/>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A21" s="5"/>
+      <c r="A21" s="14"/>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.8">
       <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.8">
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.8">
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.8">
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.8">
       <c r="C26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.8">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="C28" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="C29" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="C28" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="C29" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.8">

--- a/9-project/02. 분석 및 설계/02.01. 요구분석 및 WBS 작성/2. (참고4) WBS 작성 - 강의시간.xlsx
+++ b/9-project/02. 분석 및 설계/02.01. 요구분석 및 WBS 작성/2. (참고4) WBS 작성 - 강의시간.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>PT마켓</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,10 @@
   </si>
   <si>
     <t>마일스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현단계 합이 90시간 나오게 해야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -280,13 +284,115 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,46 +400,91 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,13 +766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.200000000000003" x14ac:dyDescent="0.8"/>
@@ -636,39 +787,39 @@
     <col min="9" max="9" width="3.3828125" customWidth="1"/>
     <col min="10" max="10" width="8.61328125" customWidth="1"/>
     <col min="11" max="11" width="3.23046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.23046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.23046875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="3.23046875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.23046875" customWidth="1"/>
-    <col min="17" max="17" width="3.23046875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="3.23046875" style="4" customWidth="1"/>
     <col min="18" max="21" width="2.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="2.265625" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="2.265625" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="3.23046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.23046875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="3.23046875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="K1" s="12">
+      <c r="K1" s="9">
         <v>10</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="11">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="8">
         <v>11</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="13"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="10"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.8">
       <c r="D2" t="s">
@@ -683,55 +834,55 @@
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="12">
         <v>1</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11">
+      <c r="L2" s="10"/>
+      <c r="M2" s="8">
         <v>2</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="11">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="8">
         <v>3</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="12">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="9">
         <v>4</v>
       </c>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="13"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A3" s="5" t="s">
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:27" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K3">
         <v>21</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>22</v>
       </c>
       <c r="M3">
@@ -746,268 +897,526 @@
       <c r="P3">
         <v>28</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>29</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="5">
         <v>1</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="5">
         <v>2</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="5">
         <v>3</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="5">
         <v>4</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="6">
         <v>5</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="5">
         <v>8</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="5">
         <v>9</v>
       </c>
-      <c r="Y3" s="7">
+      <c r="Y3" s="5">
         <v>10</v>
       </c>
-      <c r="Z3" s="7">
+      <c r="Z3" s="5">
         <v>11</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AA3" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.8">
+      <c r="A4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.8">
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.8">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.8">
+      <c r="A7" s="11"/>
       <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:27" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A8" s="11"/>
       <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:27" ht="40.799999999999997" thickTop="1" x14ac:dyDescent="0.8">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="20" t="s">
         <v>1</v>
       </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A10" s="14"/>
-      <c r="B10" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="7"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A11" s="14"/>
-      <c r="B11" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="13">
         <v>4</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="13">
         <v>-2</v>
       </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A12" s="14"/>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
         <v>12</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="13">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>4</v>
       </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="25"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A13" s="14"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="13">
         <v>18</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <v>-6</v>
       </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="25"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A14" s="14"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
         <v>12</v>
       </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="25"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A15" s="14"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13">
         <v>12</v>
       </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="25"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A16" s="14"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A17" s="14"/>
-      <c r="C17" s="3" t="s">
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="25"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="13">
         <v>9</v>
       </c>
-      <c r="J17" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A18" s="14"/>
-      <c r="C18" s="2" t="s">
+      <c r="K17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="25"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A19" s="14"/>
-      <c r="C19" s="2" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="25"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A20" s="14"/>
-      <c r="C20" s="1" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="25"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="A21" s="14"/>
-      <c r="C21" s="1" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="25"/>
+    </row>
+    <row r="21" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.8">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="30"/>
+    </row>
+    <row r="22" spans="1:26" ht="40.799999999999997" hidden="1" thickTop="1" x14ac:dyDescent="0.8">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
       <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
       <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
       <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="C28" s="4" t="s">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+      <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.8">
-      <c r="C29" s="4" t="s">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.8">
+    <row r="30" spans="1:26" ht="40.799999999999997" thickTop="1" x14ac:dyDescent="0.8">
       <c r="E30">
         <f>SUM(E4:E29)</f>
         <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.8">
+      <c r="D31" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/9-project/02. 분석 및 설계/02.01. 요구분석 및 WBS 작성/2. (참고4) WBS 작성 - 강의시간.xlsx
+++ b/9-project/02. 분석 및 설계/02.01. 요구분석 및 WBS 작성/2. (참고4) WBS 작성 - 강의시간.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>PT마켓</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,14 @@
   </si>
   <si>
     <t>구현단계 합이 90시간 나오게 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,6 +226,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="28"/>
@@ -392,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +428,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,64 +482,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,13 +780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="40.200000000000003" x14ac:dyDescent="0.8"/>
@@ -786,42 +800,43 @@
     <col min="8" max="8" width="8.61328125" customWidth="1"/>
     <col min="9" max="9" width="3.3828125" customWidth="1"/>
     <col min="10" max="10" width="8.61328125" customWidth="1"/>
-    <col min="11" max="11" width="3.23046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.23046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="3.23046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.23046875" customWidth="1"/>
-    <col min="17" max="17" width="3.23046875" style="4" customWidth="1"/>
-    <col min="18" max="21" width="2.265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="2.265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="2.265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="3.23046875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.23046875" style="4" customWidth="1"/>
+    <col min="11" max="12" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.23046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.23046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="3.23046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.23046875" customWidth="1"/>
+    <col min="19" max="19" width="3.23046875" style="4" customWidth="1"/>
+    <col min="20" max="23" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="2.265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="3.23046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.23046875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="K1" s="9">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.8">
+      <c r="M1" s="24">
         <v>10</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="8">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="23">
         <v>11</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.8">
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="25"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.8">
       <c r="D2" t="s">
         <v>20</v>
       </c>
@@ -834,33 +849,33 @@
       <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="12">
+      <c r="M2" s="30">
         <v>1</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="8">
+      <c r="N2" s="25"/>
+      <c r="O2" s="23">
         <v>2</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="8">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="23">
         <v>3</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="9">
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="24">
         <v>4</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="10"/>
-    </row>
-    <row r="3" spans="1:27" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="25"/>
+    </row>
+    <row r="3" spans="1:29" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.85">
       <c r="A3" s="3" t="s">
         <v>45</v>
       </c>
@@ -879,490 +894,526 @@
       <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3">
         <v>21</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>22</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>25</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>26</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>27</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>28</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="S3" s="4">
         <v>29</v>
       </c>
-      <c r="R3" s="5">
+      <c r="T3" s="5">
         <v>1</v>
       </c>
-      <c r="S3" s="5">
+      <c r="U3" s="5">
         <v>2</v>
       </c>
-      <c r="T3" s="5">
+      <c r="V3" s="5">
         <v>3</v>
       </c>
-      <c r="U3" s="5">
+      <c r="W3" s="5">
         <v>4</v>
       </c>
-      <c r="V3" s="6">
+      <c r="X3" s="6">
         <v>5</v>
       </c>
-      <c r="W3" s="5">
+      <c r="Y3" s="5">
         <v>8</v>
       </c>
-      <c r="X3" s="5">
+      <c r="Z3" s="5">
         <v>9</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="AA3" s="5">
         <v>10</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="AB3" s="5">
         <v>11</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AC3" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.8">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.8">
+      <c r="A4" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1" x14ac:dyDescent="0.8">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.8">
+      <c r="A5" s="29"/>
       <c r="C5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.8">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.8">
+      <c r="A6" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.8">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.8">
+      <c r="A7" s="29"/>
       <c r="C7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="70.8" hidden="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:29" ht="40.799999999999997" hidden="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A8" s="29"/>
       <c r="C8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="40.799999999999997" thickTop="1" x14ac:dyDescent="0.8">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:29" ht="40.799999999999997" thickTop="1" x14ac:dyDescent="0.8">
+      <c r="A9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="22"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A10" s="23"/>
-      <c r="B10" s="13" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="16"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.8">
+      <c r="A10" s="27"/>
+      <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A11" s="23"/>
-      <c r="B11" s="13" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="31">
+        <v>44501</v>
+      </c>
+      <c r="L10" s="31">
+        <v>44512</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="7"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.8">
+      <c r="A11" s="27"/>
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <v>2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="8">
         <v>4</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="8">
         <v>-2</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="25"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A12" s="23"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="18"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.8">
+      <c r="A12" s="27"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8">
         <v>12</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="8">
         <v>8</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="8">
         <v>4</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="25"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A13" s="23"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16" t="s">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="18"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.8">
+      <c r="A13" s="27"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>12</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>18</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="8">
         <v>-6</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="25"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A14" s="23"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="16" t="s">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="18"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.8">
+      <c r="A14" s="27"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8">
         <v>12</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="25"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A15" s="23"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="18"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.8">
+      <c r="A15" s="27"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
         <v>12</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="25"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.8">
-      <c r="A16" s="23"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="16" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="18"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.8">
+      <c r="A16" s="27"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8">
         <v>12</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="25"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.8">
-      <c r="A17" s="23"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="16" t="s">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="18"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.8">
+      <c r="A17" s="27"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="8">
         <v>9</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="25"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.8">
-      <c r="A18" s="23"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14" t="s">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="18"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.8">
+      <c r="A18" s="27"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="25"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.8">
-      <c r="A19" s="23"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="18"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.8">
+      <c r="A19" s="27"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="25"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.8">
-      <c r="A20" s="23"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="17" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="18"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.8">
+      <c r="A20" s="27"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="25"/>
-    </row>
-    <row r="21" spans="1:26" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="18"/>
+    </row>
+    <row r="21" spans="1:28" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="A21" s="28"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="30"/>
-    </row>
-    <row r="22" spans="1:26" ht="40.799999999999997" hidden="1" thickTop="1" x14ac:dyDescent="0.8">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="22"/>
+    </row>
+    <row r="22" spans="1:28" ht="40.799999999999997" hidden="1" thickTop="1" x14ac:dyDescent="0.8">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1370,27 +1421,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.8">
       <c r="C23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.8">
       <c r="C24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.8">
       <c r="C25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.8">
       <c r="C26" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.8">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1398,38 +1449,38 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.8">
       <c r="C28" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.8">
+    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.8">
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="40.799999999999997" thickTop="1" x14ac:dyDescent="0.8">
+    <row r="30" spans="1:28" ht="40.799999999999997" thickTop="1" x14ac:dyDescent="0.8">
       <c r="E30">
         <f>SUM(E4:E29)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.8">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.8">
       <c r="D31" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="T1:AC1"/>
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="M1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E11:E17">
